--- a/Data_Prep/tweets_cleaned.xlsx
+++ b/Data_Prep/tweets_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECB6203-C306-4267-8F8A-E1155C555D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1443056D-55E0-43A0-BFEF-2CA4BE2BCE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{076154BD-63EA-4C6B-BE29-0FF13C5412EB}"/>
   </bookViews>
@@ -86,64 +86,64 @@
     <t>La Palma</t>
   </si>
   <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Noordwijk</t>
+  </si>
+  <si>
+    <t>Halle</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>event_name</t>
+  </si>
+  <si>
+    <t>tweets</t>
+  </si>
+  <si>
+    <t>retweets</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>replies</t>
+  </si>
+  <si>
+    <t>Bruessel</t>
+  </si>
+  <si>
+    <t>Muenchen</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
     <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Brüssel</t>
-  </si>
-  <si>
-    <t>München</t>
-  </si>
-  <si>
-    <t>Amsterdam</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>Hamburg</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Noordwijk</t>
-  </si>
-  <si>
-    <t>Bolonga</t>
-  </si>
-  <si>
-    <t>Halle</t>
-  </si>
-  <si>
-    <t>Helsinki</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>event_name</t>
-  </si>
-  <si>
-    <t>tweets</t>
-  </si>
-  <si>
-    <t>retweets</t>
-  </si>
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
-    <t>replies</t>
   </si>
 </sst>
 </file>
@@ -162,6 +162,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -524,29 +525,29 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:F7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -571,7 +572,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -591,7 +592,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -611,7 +612,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -631,7 +632,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -651,7 +652,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -671,7 +672,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -691,7 +692,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -711,7 +712,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -731,7 +732,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -751,7 +752,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -771,7 +772,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -791,7 +792,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -811,7 +812,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -831,7 +832,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
